--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:29:52+00:00</t>
+    <t>2024-06-27T12:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:58:56+00:00</t>
+    <t>2024-07-04T11:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:48:06+00:00</t>
+    <t>2024-07-04T11:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:53:56+00:00</t>
+    <t>2024-07-04T11:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:58:25+00:00</t>
+    <t>2024-07-04T11:58:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:58:07+00:00</t>
+    <t>2024-07-04T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_R259-HL7Part" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R260-HL7Role" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T12:00:42+00:00</t>
+    <t>2024-09-24T12:46:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T12:46:07+00:00</t>
+    <t>2024-09-24T12:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T12:55:17+00:00</t>
+    <t>2024-09-24T13:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T13:55:27+00:00</t>
+    <t>2024-09-24T14:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:01:49+00:00</t>
+    <t>2024-09-24T16:16:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T16:16:00+00:00</t>
+    <t>2024-09-24T16:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T16:16:30+00:00</t>
+    <t>2025-11-17T08:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T08:43:36+00:00</t>
+    <t>2025-11-17T09:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T09:24:16+00:00</t>
+    <t>2025-11-17T13:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T13:15:55+00:00</t>
+    <t>2025-11-17T14:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:06:25+00:00</t>
+    <t>2025-11-17T14:06:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:06:39+00:00</t>
+    <t>2025-11-17T14:24:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/main/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:24:44+00:00</t>
+    <t>2025-11-17T14:25:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
